--- a/data/trans_dic/P33_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P33_R-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.2689870402300673</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3191292789744509</v>
+        <v>0.3191292789744508</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2222087000767867</v>
+        <v>0.2228667096713465</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2909925713491862</v>
+        <v>0.2906687115158305</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2008634102742953</v>
+        <v>0.2034405231066528</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2370297403939834</v>
+        <v>0.2428470826542625</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3349056099379393</v>
+        <v>0.3333866080914298</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3483991381727224</v>
+        <v>0.3479465825451223</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2789105216430919</v>
+        <v>0.2814822164735779</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3166229887417507</v>
+        <v>0.3175634208718871</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3017735387790325</v>
+        <v>0.3014272366036103</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3291729168551537</v>
+        <v>0.3286387073179365</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2506402336912698</v>
+        <v>0.2504249088020901</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2923924919852734</v>
+        <v>0.2940855767013811</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2952377602003933</v>
+        <v>0.2951826775141128</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3507517755017193</v>
+        <v>0.3502839639269993</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2532497342526875</v>
+        <v>0.2528608189639968</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3257830404100469</v>
+        <v>0.3299083112090309</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.39887016119014</v>
+        <v>0.398114136885257</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4095720065870521</v>
+        <v>0.4088387638805591</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3370947789520236</v>
+        <v>0.3333652453075664</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3852241763712689</v>
+        <v>0.3847485837476449</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3500972619420182</v>
+        <v>0.3470952107159629</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3702873578603497</v>
+        <v>0.3720559183211453</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2877312696040139</v>
+        <v>0.2885617431786597</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3469132904699396</v>
+        <v>0.349063783744262</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.276586832436085</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2917355175982368</v>
+        <v>0.2917355175982367</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.214287011579152</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1674951034552402</v>
+        <v>0.166317428875517</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2050059586317178</v>
+        <v>0.2071072262636985</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1981757048246497</v>
+        <v>0.1959002756618225</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1798021947596124</v>
+        <v>0.1802627002856464</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2104558680591029</v>
+        <v>0.2128361550263742</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2892398056118985</v>
+        <v>0.2887680439400351</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2490546197488093</v>
+        <v>0.2487239350073079</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2686018619198495</v>
+        <v>0.2677916962957165</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1961126237550164</v>
+        <v>0.1974344212348327</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2588549864076161</v>
+        <v>0.2597311086701365</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2313422506829241</v>
+        <v>0.2311948135708679</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2341722488930967</v>
+        <v>0.2346081453635769</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2159369813868356</v>
+        <v>0.214013035698547</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2620469978695255</v>
+        <v>0.2634192201698954</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.254007398950252</v>
+        <v>0.2534327647374593</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.235393567314263</v>
+        <v>0.2320832173240872</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2642811766408985</v>
+        <v>0.2649547259912257</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3466465739630668</v>
+        <v>0.3472776588313066</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3058625301125747</v>
+        <v>0.3087547495111204</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3148390513148728</v>
+        <v>0.3145910670057137</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2325008522603984</v>
+        <v>0.234529935792128</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3004720928003307</v>
+        <v>0.3001424838595779</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2744092944832531</v>
+        <v>0.2722270294228878</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.269452831538066</v>
+        <v>0.2722357072421259</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.2143773853743397</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2259838174924129</v>
+        <v>0.225983817492413</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1495630773153892</v>
@@ -957,7 +957,7 @@
         <v>0.2629657623779239</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2662434673351458</v>
+        <v>0.2662434673351459</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1466238067241052</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1242164290182157</v>
+        <v>0.1214708025985089</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1881400585655351</v>
+        <v>0.188420213215641</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1865805367674593</v>
+        <v>0.1872397649098435</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1987254639843387</v>
+        <v>0.1993073361380231</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1287352796753771</v>
+        <v>0.1294531054396403</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2499699795647553</v>
+        <v>0.2495829643250611</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2314297743052911</v>
+        <v>0.233108651481674</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2446852381702662</v>
+        <v>0.2437527808944892</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1317109142462555</v>
+        <v>0.1310410067592973</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.227725742331989</v>
+        <v>0.2267677300322374</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2178425513110603</v>
+        <v>0.2170227824679455</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2290842214582877</v>
+        <v>0.2276516266341152</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.167607759151789</v>
+        <v>0.1675317231596185</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.245696894032121</v>
+        <v>0.2443986276050472</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2421312074123845</v>
+        <v>0.246592637215222</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2529888151277414</v>
+        <v>0.2564798882949725</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1733073270616743</v>
+        <v>0.1746513232165769</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3113124105896777</v>
+        <v>0.311009487847684</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2940088104592915</v>
+        <v>0.2971946658813948</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2906516079449706</v>
+        <v>0.2899273810994554</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1627789764407294</v>
+        <v>0.1622381704770702</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2688291733201521</v>
+        <v>0.2672345232656712</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2627519684777948</v>
+        <v>0.2597475606554744</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2624708183835114</v>
+        <v>0.265173158791232</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1388619176574031</v>
+        <v>0.1373458027019047</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2195759706968158</v>
+        <v>0.2194639168940765</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2495304025376696</v>
+        <v>0.2458444515508266</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2569246288771835</v>
+        <v>0.2557252127732977</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1308358396267503</v>
+        <v>0.1287989771664791</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2413383549187234</v>
+        <v>0.2460563484239378</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2417131528101771</v>
+        <v>0.2386272735293096</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3166459743406553</v>
+        <v>0.3166935994080939</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1444759150996668</v>
+        <v>0.1435260343707512</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2447331558736749</v>
+        <v>0.2408269647923118</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2553025590093963</v>
+        <v>0.2560929257740365</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2939584192316879</v>
+        <v>0.2926029219227833</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2088431017861975</v>
+        <v>0.2122429380276393</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3039954239591716</v>
+        <v>0.3034133447082205</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3333640662333426</v>
+        <v>0.3297832398652246</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3168468596435621</v>
+        <v>0.3177417889443891</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2156188056513755</v>
+        <v>0.2129340787819341</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3357995560481331</v>
+        <v>0.33284470811022</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3234704874272606</v>
+        <v>0.3294570845591251</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3734793909158575</v>
+        <v>0.3738798153749675</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1987646130426345</v>
+        <v>0.1996649518706618</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.303468610533016</v>
+        <v>0.3041877788596647</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3139803005239507</v>
+        <v>0.3143939640733034</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.337563172854061</v>
+        <v>0.333958610755802</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1713497807488778</v>
+        <v>0.1710716548106834</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2439676369929808</v>
+        <v>0.2435431713967816</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.21734121035739</v>
+        <v>0.2187610553669063</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2308240377407761</v>
+        <v>0.2302936801953981</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2260237589706403</v>
+        <v>0.2233784892847924</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3079534036817826</v>
+        <v>0.3105462378248118</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2704951918933468</v>
+        <v>0.2712187148409499</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2944586491945073</v>
+        <v>0.2943387037915374</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2023998949525556</v>
+        <v>0.2023136368490883</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2811207000699301</v>
+        <v>0.2819656955144187</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.248969623752195</v>
+        <v>0.2494127406091682</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2668337794890575</v>
+        <v>0.2686147561714872</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1986882560737746</v>
+        <v>0.2002802445817618</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2750947596760177</v>
+        <v>0.2759476364890777</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2463178100586591</v>
+        <v>0.2466175829553665</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2625050853108841</v>
+        <v>0.2616822862863598</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2561814743912442</v>
+        <v>0.254680579401869</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3402652712143381</v>
+        <v>0.341238862298873</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.301353816703781</v>
+        <v>0.3020395208083365</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3210896376286605</v>
+        <v>0.3200424402782738</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2229869417555801</v>
+        <v>0.2232804603272743</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3030852267666297</v>
+        <v>0.3037585269044462</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2696247209875543</v>
+        <v>0.2701566027698167</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2869147309799669</v>
+        <v>0.2895451755891452</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>128240</v>
+        <v>128619</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>303086</v>
+        <v>302748</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>226030</v>
+        <v>228930</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>113245</v>
+        <v>116024</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>307736</v>
+        <v>306340</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>389840</v>
+        <v>389333</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>349836</v>
+        <v>353062</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>189861</v>
+        <v>190425</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>451449</v>
+        <v>450931</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>711179</v>
+        <v>710025</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>596420</v>
+        <v>595908</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>315027</v>
+        <v>316851</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>170386</v>
+        <v>170354</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>365328</v>
+        <v>364841</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>284980</v>
+        <v>284542</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>155648</v>
+        <v>157619</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>366511</v>
+        <v>365817</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>458289</v>
+        <v>457468</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>422817</v>
+        <v>418139</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>230997</v>
+        <v>230712</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>523741</v>
+        <v>519250</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>800007</v>
+        <v>803828</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>684682</v>
+        <v>686658</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>373768</v>
+        <v>376085</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>179057</v>
+        <v>177798</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>199287</v>
+        <v>201330</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>179644</v>
+        <v>177581</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>159723</v>
+        <v>160132</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>221721</v>
+        <v>224229</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>316247</v>
+        <v>315731</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>249922</v>
+        <v>249590</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>283378</v>
+        <v>282524</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>416260</v>
+        <v>419065</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>534659</v>
+        <v>536469</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>441857</v>
+        <v>441575</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>455076</v>
+        <v>455923</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>230843</v>
+        <v>228786</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>254737</v>
+        <v>256071</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>230255</v>
+        <v>229734</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>209106</v>
+        <v>206165</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>278427</v>
+        <v>279137</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>379014</v>
+        <v>379704</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>306928</v>
+        <v>309830</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>332159</v>
+        <v>331898</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>493496</v>
+        <v>497803</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>620618</v>
+        <v>619937</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>524114</v>
+        <v>519945</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>523638</v>
+        <v>529046</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>136995</v>
+        <v>133967</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>165958</v>
+        <v>166205</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>153697</v>
+        <v>154240</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>206330</v>
+        <v>206935</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>127074</v>
+        <v>127782</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>218085</v>
+        <v>217748</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>177703</v>
+        <v>178992</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>253315</v>
+        <v>252350</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>275271</v>
+        <v>273871</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>399555</v>
+        <v>397874</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>346720</v>
+        <v>345415</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>475015</v>
+        <v>472044</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>184850</v>
+        <v>184766</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>216729</v>
+        <v>215584</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>199458</v>
+        <v>203133</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>262670</v>
+        <v>266295</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>171070</v>
+        <v>172397</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>271603</v>
+        <v>271339</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>225754</v>
+        <v>228200</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>300903</v>
+        <v>300153</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>340203</v>
+        <v>339072</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>471673</v>
+        <v>468875</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>418198</v>
+        <v>413416</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>544243</v>
+        <v>549846</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>60388</v>
+        <v>59729</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>110033</v>
+        <v>109977</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>126007</v>
+        <v>124146</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>250319</v>
+        <v>249150</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>43748</v>
+        <v>43067</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>108266</v>
+        <v>110383</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>117624</v>
+        <v>116123</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>284553</v>
+        <v>284596</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>111138</v>
+        <v>110408</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>232429</v>
+        <v>228719</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>253159</v>
+        <v>253943</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>550565</v>
+        <v>548026</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>90821</v>
+        <v>92300</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>152338</v>
+        <v>152046</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>168341</v>
+        <v>166533</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>308700</v>
+        <v>309572</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>72097</v>
+        <v>71200</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>150642</v>
+        <v>149316</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>157410</v>
+        <v>160323</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>335626</v>
+        <v>335986</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>152900</v>
+        <v>153592</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>288212</v>
+        <v>288895</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>311344</v>
+        <v>311754</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>632234</v>
+        <v>625483</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>545559</v>
+        <v>544674</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>828729</v>
+        <v>827287</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>730379</v>
+        <v>735150</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>779873</v>
+        <v>778081</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>744492</v>
+        <v>735779</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1088114</v>
+        <v>1097275</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>950048</v>
+        <v>952589</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1056686</v>
+        <v>1056255</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1311098</v>
+        <v>1310539</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1948237</v>
+        <v>1954093</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1711111</v>
+        <v>1714156</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1859090</v>
+        <v>1871498</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>632602</v>
+        <v>637670</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>934464</v>
+        <v>937361</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>827755</v>
+        <v>828762</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>886912</v>
+        <v>884132</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>843828</v>
+        <v>838884</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1202283</v>
+        <v>1205724</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1058431</v>
+        <v>1060839</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1152253</v>
+        <v>1148495</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1444456</v>
+        <v>1446357</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2100457</v>
+        <v>2105123</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1853068</v>
+        <v>1856724</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1998998</v>
+        <v>2017325</v>
       </c>
     </row>
     <row r="24">
